--- a/spreadsheets/master_tracker.xlsx
+++ b/spreadsheets/master_tracker.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$K$160</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="534">
   <si>
     <t>Study</t>
   </si>
@@ -88,6 +91,9 @@
     <t>PATIENT6206</t>
   </si>
   <si>
+    <t>00720</t>
+  </si>
+  <si>
     <t>915</t>
   </si>
   <si>
@@ -151,6 +157,12 @@
     <t>324714</t>
   </si>
   <si>
+    <t>017^.</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
     <t>018</t>
   </si>
   <si>
@@ -214,6 +226,12 @@
     <t>20286</t>
   </si>
   <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
     <t>Procedure</t>
   </si>
   <si>
@@ -673,6 +691,33 @@
     <t>12:23:32</t>
   </si>
   <si>
+    <t>19:31:35</t>
+  </si>
+  <si>
+    <t>07:38:44</t>
+  </si>
+  <si>
+    <t>07:47:16</t>
+  </si>
+  <si>
+    <t>17:35:56</t>
+  </si>
+  <si>
+    <t>11:31:54</t>
+  </si>
+  <si>
+    <t>14:03:23</t>
+  </si>
+  <si>
+    <t>09:18:18</t>
+  </si>
+  <si>
+    <t>10:32:05</t>
+  </si>
+  <si>
+    <t>23:58:16</t>
+  </si>
+  <si>
     <t>2019-03-10 12:02:57</t>
   </si>
   <si>
@@ -1102,6 +1147,36 @@
     <t>2021-12-09 12:23:32</t>
   </si>
   <si>
+    <t>2020-06-14 12:00:00</t>
+  </si>
+  <si>
+    <t>2020-10-24 19:31:35</t>
+  </si>
+  <si>
+    <t>2020-10-26 07:38:44</t>
+  </si>
+  <si>
+    <t>2020-11-01 07:47:16</t>
+  </si>
+  <si>
+    <t>2020-11-01 17:35:56</t>
+  </si>
+  <si>
+    <t>2020-11-01 11:31:54</t>
+  </si>
+  <si>
+    <t>2020-10-25 14:03:23</t>
+  </si>
+  <si>
+    <t>2020-11-01 09:18:18</t>
+  </si>
+  <si>
+    <t>2020-11-02 10:32:05</t>
+  </si>
+  <si>
+    <t>2020-10-24 23:58:16</t>
+  </si>
+  <si>
     <t>Ready For Review</t>
   </si>
   <si>
@@ -1111,6 +1186,9 @@
     <t>Issues with Imaging</t>
   </si>
   <si>
+    <t>Not Proccessed</t>
+  </si>
+  <si>
     <t>Excellent_915_015-Procedure</t>
   </si>
   <si>
@@ -1276,6 +1354,33 @@
     <t>Timeless-324714_20286-Baseline</t>
   </si>
   <si>
+    <t>00720-017^.</t>
+  </si>
+  <si>
+    <t>Excellent_938_058-Baseline</t>
+  </si>
+  <si>
+    <t>Excellent_938_058-Unscheduled</t>
+  </si>
+  <si>
+    <t>Excellent_938_059-Baseline</t>
+  </si>
+  <si>
+    <t>Excellent_938_059-Unscheduled</t>
+  </si>
+  <si>
+    <t>Excellent_938_058-Post</t>
+  </si>
+  <si>
+    <t>Excellent_938_059-Procedure</t>
+  </si>
+  <si>
+    <t>Excellent_938_059-Post</t>
+  </si>
+  <si>
+    <t>Excellent_938_058-Procedure</t>
+  </si>
+  <si>
     <t>2021-12-08 07:11:53</t>
   </si>
   <si>
@@ -1502,6 +1607,18 @@
   </si>
   <si>
     <t>2022-02-24 16:59:36</t>
+  </si>
+  <si>
+    <t>2022-02-26 17:09:20</t>
+  </si>
+  <si>
+    <t>2022-02-26 17:15:05</t>
+  </si>
+  <si>
+    <t>2022-02-26 17:15:23</t>
+  </si>
+  <si>
+    <t>2022-02-26 17:15:30</t>
   </si>
 </sst>
 </file>
@@ -1863,11 +1980,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="12" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
@@ -1912,25 +2032,25 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>43534</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1941,34 +2061,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2">
         <v>43534</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="J3" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K3" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="L3" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1979,28 +2099,28 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2">
         <v>44461</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="J4" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K4" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="L4" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2011,28 +2131,28 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="2">
         <v>44463</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="J5" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K5" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="L5" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2043,28 +2163,28 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" s="2">
         <v>44578</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="J6" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K6" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="L6" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2075,28 +2195,28 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G7" s="2">
         <v>44503</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K7" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="L7" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2107,34 +2227,34 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G8" s="2">
         <v>44511</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="J8" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K8" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="L8" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2145,34 +2265,34 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G9" s="2">
         <v>44511</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="J9" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="K9" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L9" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2183,34 +2303,34 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" s="2">
         <v>44511</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="J10" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K10" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L10" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2221,34 +2341,34 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G11" s="2">
         <v>44511</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="J11" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K11" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="L11" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2259,34 +2379,34 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2">
         <v>44512</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="J12" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K12" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="L12" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2297,34 +2417,34 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G13" s="2">
         <v>44512</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="J13" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K13" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="L13" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2335,34 +2455,34 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2">
         <v>43824</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="J14" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K14" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="L14" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2373,34 +2493,34 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2">
         <v>43825</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="J15" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K15" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="L15" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2411,34 +2531,34 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2">
         <v>43826</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K16" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="L16" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2449,34 +2569,34 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2">
         <v>43824</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J17" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K17" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="L17" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2487,34 +2607,34 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" s="2">
         <v>43824</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I18" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="J18" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K18" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="L18" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2525,34 +2645,34 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2">
         <v>43534</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="J19" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K19" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="L19" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2563,34 +2683,34 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G20" s="2">
         <v>44484</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="J20" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K20" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="L20" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2601,31 +2721,31 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G21" s="2">
         <v>43824</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="J21" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K21" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="L21" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2636,25 +2756,25 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G22" s="2">
         <v>44596</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J22" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
       </c>
       <c r="L22" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2665,25 +2785,25 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G23" s="2">
         <v>44596</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J23" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
       </c>
       <c r="L23" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2694,25 +2814,25 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" s="2">
         <v>44596</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2723,25 +2843,25 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G25" s="2">
         <v>44596</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="J25" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K25" t="s">
         <v>19</v>
       </c>
       <c r="L25" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2752,28 +2872,28 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G26" s="2">
         <v>43545</v>
       </c>
       <c r="H26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L26" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2784,28 +2904,28 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G27" s="2">
         <v>43545</v>
       </c>
       <c r="H27" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K27" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L27" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2816,28 +2936,28 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" s="2">
         <v>43545</v>
       </c>
       <c r="H28" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="J28" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K28" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L28" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2848,28 +2968,28 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G29" s="2">
         <v>43547</v>
       </c>
       <c r="H29" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K29" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L29" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2880,28 +3000,28 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G30" s="2">
         <v>43552</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K30" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L30" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2912,28 +3032,28 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G31" s="2">
         <v>43553</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K31" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L31" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2944,28 +3064,28 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G32" s="2">
         <v>43591</v>
       </c>
       <c r="H32" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="J32" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K32" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L32" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2976,28 +3096,28 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G33" s="2">
         <v>43556</v>
       </c>
       <c r="H33" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J33" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K33" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L33" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -3008,28 +3128,28 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G34" s="2">
         <v>43572</v>
       </c>
       <c r="H34" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="J34" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K34" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L34" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -3040,28 +3160,28 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G35" s="2">
         <v>43673</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I35" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K35" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L35" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3072,28 +3192,28 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G36" s="2">
         <v>43752</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I36" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="J36" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K36" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L36" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -3104,28 +3224,28 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G37" s="2">
         <v>43744</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K37" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L37" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3136,28 +3256,28 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G38" s="2">
         <v>43845</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="J38" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K38" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="L38" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3168,28 +3288,28 @@
         <v>20</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2">
         <v>43785</v>
       </c>
       <c r="H39" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I39" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="J39" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L39" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3200,28 +3320,28 @@
         <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G40" s="2">
         <v>43785</v>
       </c>
       <c r="H40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K40" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3232,28 +3352,28 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G41" s="2">
         <v>43787</v>
       </c>
       <c r="H41" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I41" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J41" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L41" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -3264,28 +3384,28 @@
         <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G42" s="2">
         <v>43790</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I42" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J42" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L42" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3296,28 +3416,28 @@
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G43" s="2">
         <v>43786</v>
       </c>
       <c r="H43" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J43" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L43" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3328,28 +3448,28 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G44" s="2">
         <v>43788</v>
       </c>
       <c r="H44" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I44" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L44" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3360,28 +3480,28 @@
         <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G45" s="2">
         <v>43790</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I45" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L45" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3392,28 +3512,28 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G46" s="2">
         <v>43790</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J46" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3424,28 +3544,28 @@
         <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G47" s="2">
         <v>43790</v>
       </c>
       <c r="H47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="J47" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K47" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3456,28 +3576,28 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G48" s="2">
         <v>43791</v>
       </c>
       <c r="H48" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J48" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K48" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3488,28 +3608,28 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G49" s="2">
         <v>43791</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3520,28 +3640,28 @@
         <v>20</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G50" s="2">
         <v>44435</v>
       </c>
       <c r="H50" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J50" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="L50" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3552,28 +3672,28 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G51" s="2">
         <v>44454</v>
       </c>
       <c r="H51" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I51" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J51" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K51" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3584,34 +3704,34 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G52" s="2">
         <v>43732</v>
       </c>
       <c r="H52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I52" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="L52" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3622,28 +3742,28 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G53" s="2">
         <v>43686</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I53" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J53" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3654,34 +3774,34 @@
         <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G54" s="2">
         <v>44448</v>
       </c>
       <c r="H54" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I54" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K54" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3692,34 +3812,34 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G55" s="2">
         <v>44544</v>
       </c>
       <c r="H55" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I55" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J55" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K55" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3730,31 +3850,31 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F56" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G56" s="2">
         <v>44310</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I56" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J56" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3765,34 +3885,34 @@
         <v>22</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G57" s="2">
         <v>44516</v>
       </c>
       <c r="H57" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I57" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J57" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K57" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3803,34 +3923,34 @@
         <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G58" s="2">
         <v>44516</v>
       </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I58" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="J58" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K58" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3841,34 +3961,34 @@
         <v>22</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F59" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G59" s="2">
         <v>44516</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I59" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J59" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K59" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3879,34 +3999,34 @@
         <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G60" s="2">
         <v>44517</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I60" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J60" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K60" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3917,34 +4037,34 @@
         <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G61" s="2">
         <v>44517</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I61" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J61" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K61" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3955,34 +4075,34 @@
         <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F62" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G62" s="2">
         <v>44516</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I62" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J62" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K62" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="L62" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3993,34 +4113,34 @@
         <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G63" s="2">
         <v>44437</v>
       </c>
       <c r="H63" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J63" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K63" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="L63" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -4031,34 +4151,34 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G64" s="2">
         <v>44434</v>
       </c>
       <c r="H64" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I64" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J64" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K64" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="L64" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -4069,31 +4189,31 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G65" s="2">
         <v>44592</v>
       </c>
       <c r="H65" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I65" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="J65" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K65" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -4104,31 +4224,31 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G66" s="2">
         <v>44592</v>
       </c>
       <c r="H66" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I66" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J66" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K66" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="L66" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4139,31 +4259,31 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G67" s="2">
         <v>44593</v>
       </c>
       <c r="H67" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I67" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J67" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K67" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="L67" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -4174,31 +4294,31 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F68" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G68" s="2">
         <v>44573</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I68" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="J68" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K68" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L68" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -4209,31 +4329,31 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G69" s="2">
         <v>44573</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I69" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J69" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K69" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L69" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -4244,31 +4364,31 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G70" s="2">
         <v>44573</v>
       </c>
       <c r="H70" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I70" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="J70" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K70" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L70" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -4279,31 +4399,31 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G71" s="2">
         <v>44573</v>
       </c>
       <c r="H71" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I71" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J71" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K71" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -4314,31 +4434,31 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G72" s="2">
         <v>44560</v>
       </c>
       <c r="H72" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I72" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="J72" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K72" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -4349,31 +4469,31 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G73" s="2">
         <v>44559</v>
       </c>
       <c r="H73" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I73" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="J73" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K73" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="L73" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -4384,31 +4504,31 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G74" s="2">
         <v>44559</v>
       </c>
       <c r="H74" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="J74" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K74" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="L74" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -4419,31 +4539,31 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G75" s="2">
         <v>44562</v>
       </c>
       <c r="H75" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I75" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="J75" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K75" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L75" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -4454,31 +4574,31 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G76" s="2">
         <v>44564</v>
       </c>
       <c r="H76" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I76" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="J76" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K76" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L76" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -4489,31 +4609,31 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G77" s="2">
         <v>44561</v>
       </c>
       <c r="H77" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I77" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="J77" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K77" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L77" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -4524,31 +4644,31 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G78" s="2">
         <v>44561</v>
       </c>
       <c r="H78" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I78" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="J78" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K78" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="L78" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -4559,31 +4679,31 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F79" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G79" s="2">
         <v>44559</v>
       </c>
       <c r="H79" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="J79" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K79" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="L79" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -4594,31 +4714,31 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G80" s="2">
         <v>44558</v>
       </c>
       <c r="H80" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I80" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="J80" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K80" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="L80" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -4629,31 +4749,31 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F81" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G81" s="2">
         <v>44558</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I81" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="J81" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K81" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="L81" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -4664,31 +4784,31 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F82" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G82" s="2">
         <v>44558</v>
       </c>
       <c r="H82" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I82" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="J82" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K82" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="L82" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4699,31 +4819,31 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G83" s="2">
         <v>44411</v>
       </c>
       <c r="H83" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I83" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="J83" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K83" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L83" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4734,31 +4854,31 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G84" s="2">
         <v>44414</v>
       </c>
       <c r="H84" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I84" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="J84" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K84" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L84" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4769,31 +4889,31 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G85" s="2">
         <v>44412</v>
       </c>
       <c r="H85" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I85" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="J85" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K85" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L85" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4804,31 +4924,31 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G86" s="2">
         <v>44411</v>
       </c>
       <c r="H86" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I86" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="J86" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K86" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L86" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4839,31 +4959,31 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G87" s="2">
         <v>44424</v>
       </c>
       <c r="H87" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I87" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="J87" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K87" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L87" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4874,31 +4994,31 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G88" s="2">
         <v>44468</v>
       </c>
       <c r="H88" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I88" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="J88" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K88" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L88" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4909,31 +5029,31 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F89" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G89" s="2">
         <v>44529</v>
       </c>
       <c r="H89" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I89" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="J89" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K89" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L89" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4944,31 +5064,31 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F90" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G90" s="2">
         <v>44529</v>
       </c>
       <c r="H90" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I90" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="J90" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K90" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L90" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4979,31 +5099,31 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G91" s="2">
         <v>44530</v>
       </c>
       <c r="H91" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I91" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="J91" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K91" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L91" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -5014,31 +5134,31 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G92" s="2">
         <v>44529</v>
       </c>
       <c r="H92" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="J92" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K92" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L92" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -5049,31 +5169,31 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F93" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G93" s="2">
         <v>44529</v>
       </c>
       <c r="H93" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I93" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="J93" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K93" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="L93" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -5084,31 +5204,31 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G94" s="2">
         <v>44526</v>
       </c>
       <c r="H94" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I94" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="J94" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K94" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="L94" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -5119,31 +5239,31 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G95" s="2">
         <v>44525</v>
       </c>
       <c r="H95" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I95" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="J95" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K95" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="L95" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -5154,31 +5274,31 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G96" s="2">
         <v>44525</v>
       </c>
       <c r="H96" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I96" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J96" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K96" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="L96" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -5189,31 +5309,31 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G97" s="2">
         <v>44525</v>
       </c>
       <c r="H97" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I97" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="J97" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K97" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="L97" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -5224,31 +5344,31 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G98" s="2">
         <v>44525</v>
       </c>
       <c r="H98" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I98" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="J98" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K98" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="L98" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -5259,31 +5379,31 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G99" s="2">
         <v>44537</v>
       </c>
       <c r="H99" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I99" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="J99" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K99" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L99" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -5294,31 +5414,31 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G100" s="2">
         <v>44536</v>
       </c>
       <c r="H100" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I100" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="J100" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K100" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L100" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -5329,31 +5449,31 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G101" s="2">
         <v>44536</v>
       </c>
       <c r="H101" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I101" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J101" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K101" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="L101" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -5364,31 +5484,31 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G102" s="2">
         <v>44510</v>
       </c>
       <c r="H102" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I102" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="J102" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K102" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L102" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -5399,31 +5519,31 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D103" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F103" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G103" s="2">
         <v>44510</v>
       </c>
       <c r="H103" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I103" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="J103" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K103" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L103" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="104" spans="1:12">
@@ -5434,31 +5554,31 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D104" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F104" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G104" s="2">
         <v>44511</v>
       </c>
       <c r="H104" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I104" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="J104" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K104" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L104" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="105" spans="1:12">
@@ -5469,31 +5589,31 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G105" s="2">
         <v>44510</v>
       </c>
       <c r="H105" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I105" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="J105" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K105" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="L105" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
     </row>
     <row r="106" spans="1:12">
@@ -5504,31 +5624,31 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F106" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G106" s="2">
         <v>44412</v>
       </c>
       <c r="H106" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I106" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="J106" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K106" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L106" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="107" spans="1:12">
@@ -5539,31 +5659,31 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F107" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G107" s="2">
         <v>44411</v>
       </c>
       <c r="H107" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I107" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="J107" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K107" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L107" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -5574,31 +5694,31 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F108" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G108" s="2">
         <v>44411</v>
       </c>
       <c r="H108" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I108" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="J108" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K108" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="L108" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -5609,31 +5729,31 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G109" s="2">
         <v>44406</v>
       </c>
       <c r="H109" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I109" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="J109" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K109" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L109" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -5644,31 +5764,31 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G110" s="2">
         <v>44406</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I110" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="J110" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K110" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L110" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -5679,31 +5799,31 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F111" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G111" s="2">
         <v>44407</v>
       </c>
       <c r="H111" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I111" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="J111" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K111" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L111" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="112" spans="1:12">
@@ -5714,31 +5834,31 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F112" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G112" s="2">
         <v>44504</v>
       </c>
       <c r="H112" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I112" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="J112" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K112" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="L112" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:12">
@@ -5749,31 +5869,31 @@
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G113" s="2">
         <v>44375</v>
       </c>
       <c r="H113" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I113" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="J113" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K113" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="L113" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="114" spans="1:12">
@@ -5784,31 +5904,31 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G114" s="2">
         <v>44375</v>
       </c>
       <c r="H114" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I114" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="J114" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K114" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="L114" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="115" spans="1:12">
@@ -5819,31 +5939,31 @@
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G115" s="2">
         <v>44376</v>
       </c>
       <c r="H115" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I115" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="J115" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K115" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="L115" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="116" spans="1:12">
@@ -5854,31 +5974,31 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G116" s="2">
         <v>44375</v>
       </c>
       <c r="H116" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I116" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J116" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K116" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="L116" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="117" spans="1:12">
@@ -5889,31 +6009,31 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G117" s="2">
         <v>44375</v>
       </c>
       <c r="H117" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I117" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="J117" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K117" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="L117" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
     </row>
     <row r="118" spans="1:12">
@@ -5924,31 +6044,31 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F118" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G118" s="2">
         <v>44348</v>
       </c>
       <c r="H118" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I118" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="J118" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K118" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="L118" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="1:12">
@@ -5959,31 +6079,31 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F119" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G119" s="2">
         <v>44348</v>
       </c>
       <c r="H119" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="I119" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="J119" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K119" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="L119" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120" spans="1:12">
@@ -5994,31 +6114,31 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D120" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F120" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G120" s="2">
         <v>44349</v>
       </c>
       <c r="H120" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I120" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="J120" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K120" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="L120" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:12">
@@ -6029,31 +6149,31 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D121" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F121" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G121" s="2">
         <v>44348</v>
       </c>
       <c r="H121" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="I121" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="J121" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K121" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="L121" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="122" spans="1:12">
@@ -6064,31 +6184,31 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F122" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G122" s="2">
         <v>44348</v>
       </c>
       <c r="H122" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I122" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="J122" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K122" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="L122" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
     </row>
     <row r="123" spans="1:12">
@@ -6099,31 +6219,31 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G123" s="2">
         <v>44495</v>
       </c>
       <c r="H123" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I123" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="J123" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K123" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="L123" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
     </row>
     <row r="124" spans="1:12">
@@ -6134,31 +6254,31 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G124" s="2">
         <v>44496</v>
       </c>
       <c r="H124" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I124" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="J124" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K124" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="L124" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
     </row>
     <row r="125" spans="1:12">
@@ -6169,31 +6289,31 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G125" s="2">
         <v>44496</v>
       </c>
       <c r="H125" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="I125" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="J125" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K125" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="L125" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -6204,31 +6324,31 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F126" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G126" s="2">
         <v>44465</v>
       </c>
       <c r="H126" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I126" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="J126" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K126" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L126" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -6239,31 +6359,31 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F127" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G127" s="2">
         <v>44464</v>
       </c>
       <c r="H127" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="I127" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="J127" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K127" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L127" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -6274,31 +6394,31 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D128" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F128" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G128" s="2">
         <v>44464</v>
       </c>
       <c r="H128" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I128" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="J128" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K128" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="L128" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -6309,31 +6429,31 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F129" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G129" s="2">
         <v>44433</v>
       </c>
       <c r="H129" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="I129" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="J129" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K129" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="L129" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -6344,31 +6464,31 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F130" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G130" s="2">
         <v>44432</v>
       </c>
       <c r="H130" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I130" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="J130" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K130" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="L130" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -6379,31 +6499,31 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F131" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G131" s="2">
         <v>44432</v>
       </c>
       <c r="H131" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="I131" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="J131" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K131" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="L131" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -6414,31 +6534,31 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F132" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G132" s="2">
         <v>44432</v>
       </c>
       <c r="H132" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="I132" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="J132" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K132" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="L132" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
     </row>
     <row r="133" spans="1:12">
@@ -6449,31 +6569,31 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F133" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G133" s="2">
         <v>44446</v>
       </c>
       <c r="H133" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I133" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="J133" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K133" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L133" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="134" spans="1:12">
@@ -6484,31 +6604,31 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D134" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F134" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G134" s="2">
         <v>44446</v>
       </c>
       <c r="H134" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="I134" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="J134" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K134" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L134" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="135" spans="1:12">
@@ -6519,31 +6639,31 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F135" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G135" s="2">
         <v>44446</v>
       </c>
       <c r="H135" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I135" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="J135" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K135" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L135" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
     </row>
     <row r="136" spans="1:12">
@@ -6554,34 +6674,34 @@
         <v>12</v>
       </c>
       <c r="C136" t="s">
+        <v>37</v>
+      </c>
+      <c r="D136" t="s">
         <v>36</v>
       </c>
-      <c r="D136" t="s">
-        <v>35</v>
-      </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F136" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G136" s="2">
         <v>43853</v>
       </c>
       <c r="H136" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="I136" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="J136" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K136" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="L136" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="137" spans="1:12">
@@ -6592,34 +6712,34 @@
         <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F137" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G137" s="2">
         <v>43699</v>
       </c>
       <c r="H137" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I137" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="J137" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K137" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="L137" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
     </row>
     <row r="138" spans="1:12">
@@ -6630,34 +6750,34 @@
         <v>12</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F138" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G138" s="2">
         <v>43738</v>
       </c>
       <c r="H138" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I138" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="J138" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K138" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="L138" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
     </row>
     <row r="139" spans="1:12">
@@ -6668,34 +6788,34 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E139" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F139" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G139" s="2">
         <v>43741</v>
       </c>
       <c r="H139" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I139" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="J139" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K139" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="L139" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
     </row>
     <row r="140" spans="1:12">
@@ -6706,34 +6826,34 @@
         <v>12</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E140" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F140" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G140" s="2">
         <v>43725</v>
       </c>
       <c r="H140" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="I140" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="J140" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K140" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="L140" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
     </row>
     <row r="141" spans="1:12">
@@ -6744,34 +6864,34 @@
         <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E141" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F141" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G141" s="2">
         <v>43724</v>
       </c>
       <c r="H141" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="I141" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="J141" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K141" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="L141" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
     </row>
     <row r="142" spans="1:12">
@@ -6782,34 +6902,34 @@
         <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D142" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E142" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F142" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G142" s="2">
         <v>44032</v>
       </c>
       <c r="H142" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I142" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="J142" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K142" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="L142" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
     </row>
     <row r="143" spans="1:12">
@@ -6820,34 +6940,34 @@
         <v>12</v>
       </c>
       <c r="C143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F143" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G143" s="2">
         <v>43686</v>
       </c>
       <c r="H143" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I143" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J143" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="K143" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="L143" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:12">
@@ -6858,34 +6978,34 @@
         <v>21</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D144" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F144" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G144" s="2">
         <v>44335</v>
       </c>
       <c r="H144" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="I144" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="J144" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K144" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="L144" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6896,34 +7016,34 @@
         <v>21</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D145" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E145" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F145" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G145" s="2">
         <v>44335</v>
       </c>
       <c r="H145" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I145" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="J145" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K145" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L145" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6934,34 +7054,34 @@
         <v>21</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E146" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F146" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G146" s="2">
         <v>44335</v>
       </c>
       <c r="H146" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="I146" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="J146" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K146" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L146" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6972,34 +7092,34 @@
         <v>21</v>
       </c>
       <c r="C147" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D147" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E147" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F147" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G147" s="2">
         <v>44335</v>
       </c>
       <c r="H147" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I147" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="J147" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="K147" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L147" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -7010,25 +7130,25 @@
         <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G148" s="2">
         <v>44540</v>
       </c>
       <c r="H148" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="I148" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="J148" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="K148" t="s">
         <v>23</v>
       </c>
       <c r="L148" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -7039,25 +7159,25 @@
         <v>23</v>
       </c>
       <c r="F149" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G149" s="2">
         <v>44539</v>
       </c>
       <c r="H149" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I149" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="J149" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="K149" t="s">
         <v>23</v>
       </c>
       <c r="L149" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -7068,28 +7188,403 @@
         <v>23</v>
       </c>
       <c r="F150" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G150" s="2">
         <v>44539</v>
       </c>
       <c r="H150" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="I150" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="J150" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="K150" t="s">
         <v>23</v>
       </c>
       <c r="L150" t="s">
-        <v>495</v>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>46</v>
+      </c>
+      <c r="F151" t="s">
+        <v>77</v>
+      </c>
+      <c r="G151" s="2">
+        <v>43996</v>
+      </c>
+      <c r="H151" t="s">
+        <v>216</v>
+      </c>
+      <c r="I151" t="s">
+        <v>376</v>
+      </c>
+      <c r="J151" t="s">
+        <v>389</v>
+      </c>
+      <c r="K151" t="s">
+        <v>445</v>
+      </c>
+      <c r="L151" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" t="s">
+        <v>72</v>
+      </c>
+      <c r="F152" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44128</v>
+      </c>
+      <c r="H152" t="s">
+        <v>224</v>
+      </c>
+      <c r="I152" t="s">
+        <v>377</v>
+      </c>
+      <c r="J152" t="s">
+        <v>389</v>
+      </c>
+      <c r="K152" t="s">
+        <v>446</v>
+      </c>
+      <c r="L152" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" t="s">
+        <v>73</v>
+      </c>
+      <c r="F153" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44130</v>
+      </c>
+      <c r="H153" t="s">
+        <v>225</v>
+      </c>
+      <c r="I153" t="s">
+        <v>378</v>
+      </c>
+      <c r="J153" t="s">
+        <v>389</v>
+      </c>
+      <c r="K153" t="s">
+        <v>447</v>
+      </c>
+      <c r="L153" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>47</v>
+      </c>
+      <c r="D154" t="s">
+        <v>70</v>
+      </c>
+      <c r="E154" t="s">
+        <v>72</v>
+      </c>
+      <c r="F154" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="2">
+        <v>44136</v>
+      </c>
+      <c r="H154" t="s">
+        <v>226</v>
+      </c>
+      <c r="I154" t="s">
+        <v>379</v>
+      </c>
+      <c r="J154" t="s">
+        <v>389</v>
+      </c>
+      <c r="K154" t="s">
+        <v>448</v>
+      </c>
+      <c r="L154" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" t="s">
+        <v>70</v>
+      </c>
+      <c r="E155" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="2">
+        <v>44136</v>
+      </c>
+      <c r="H155" t="s">
+        <v>227</v>
+      </c>
+      <c r="I155" t="s">
+        <v>380</v>
+      </c>
+      <c r="J155" t="s">
+        <v>389</v>
+      </c>
+      <c r="K155" t="s">
+        <v>449</v>
+      </c>
+      <c r="L155" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>47</v>
+      </c>
+      <c r="D156" t="s">
+        <v>70</v>
+      </c>
+      <c r="E156" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44136</v>
+      </c>
+      <c r="H156" t="s">
+        <v>228</v>
+      </c>
+      <c r="I156" t="s">
+        <v>381</v>
+      </c>
+      <c r="J156" t="s">
+        <v>389</v>
+      </c>
+      <c r="K156" t="s">
+        <v>449</v>
+      </c>
+      <c r="L156" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>47</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" t="s">
+        <v>74</v>
+      </c>
+      <c r="F157" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="2">
+        <v>44129</v>
+      </c>
+      <c r="H157" t="s">
+        <v>229</v>
+      </c>
+      <c r="I157" t="s">
+        <v>382</v>
+      </c>
+      <c r="J157" t="s">
+        <v>389</v>
+      </c>
+      <c r="K157" t="s">
+        <v>450</v>
+      </c>
+      <c r="L157" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>47</v>
+      </c>
+      <c r="D158" t="s">
+        <v>70</v>
+      </c>
+      <c r="E158" t="s">
+        <v>71</v>
+      </c>
+      <c r="F158" t="s">
+        <v>77</v>
+      </c>
+      <c r="G158" s="2">
+        <v>44136</v>
+      </c>
+      <c r="H158" t="s">
+        <v>230</v>
+      </c>
+      <c r="I158" t="s">
+        <v>383</v>
+      </c>
+      <c r="J158" t="s">
+        <v>389</v>
+      </c>
+      <c r="K158" t="s">
+        <v>451</v>
+      </c>
+      <c r="L158" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>47</v>
+      </c>
+      <c r="D159" t="s">
+        <v>70</v>
+      </c>
+      <c r="E159" t="s">
+        <v>74</v>
+      </c>
+      <c r="F159" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="2">
+        <v>44137</v>
+      </c>
+      <c r="H159" t="s">
+        <v>231</v>
+      </c>
+      <c r="I159" t="s">
+        <v>384</v>
+      </c>
+      <c r="J159" t="s">
+        <v>389</v>
+      </c>
+      <c r="K159" t="s">
+        <v>452</v>
+      </c>
+      <c r="L159" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" t="s">
+        <v>71</v>
+      </c>
+      <c r="F160" t="s">
+        <v>77</v>
+      </c>
+      <c r="G160" s="2">
+        <v>44128</v>
+      </c>
+      <c r="H160" t="s">
+        <v>232</v>
+      </c>
+      <c r="I160" t="s">
+        <v>385</v>
+      </c>
+      <c r="J160" t="s">
+        <v>389</v>
+      </c>
+      <c r="K160" t="s">
+        <v>453</v>
+      </c>
+      <c r="L160" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K160"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/spreadsheets/master_tracker.xlsx
+++ b/spreadsheets/master_tracker.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$K$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracker!$A$1:$L$160</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="489">
   <si>
     <t>Study</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Unresolved</t>
+  </si>
+  <si>
     <t>patient_name</t>
   </si>
   <si>
@@ -92,144 +95,6 @@
   </si>
   <si>
     <t>00720</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>99w2</t>
-  </si>
-  <si>
-    <t>5zc7</t>
-  </si>
-  <si>
-    <t>7xhv</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>025 6 months</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>894</t>
-  </si>
-  <si>
-    <t>327342</t>
-  </si>
-  <si>
-    <t>326159</t>
-  </si>
-  <si>
-    <t>631</t>
-  </si>
-  <si>
-    <t>324293</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>893</t>
-  </si>
-  <si>
-    <t>324714</t>
-  </si>
-  <si>
-    <t>017^.</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>20328</t>
-  </si>
-  <si>
-    <t>20355</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>20323</t>
-  </si>
-  <si>
-    <t>031</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>029</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>20286</t>
-  </si>
-  <si>
-    <t>058</t>
-  </si>
-  <si>
-    <t>059</t>
   </si>
   <si>
     <t>Procedure</t>
@@ -1980,16 +1845,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L160"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="12" width="20.7109375" customWidth="1"/>
+    <col min="2" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2023,5568 +1888,6006 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>43534</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="J2" t="s">
-        <v>386</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="L2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>915</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
         <v>43534</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="J3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K3" t="s">
-        <v>390</v>
+        <v>341</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>345</v>
+      </c>
+      <c r="M3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2">
         <v>44461</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="J4" t="s">
-        <v>386</v>
-      </c>
-      <c r="K4" t="s">
-        <v>391</v>
+        <v>341</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>346</v>
+      </c>
+      <c r="M4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>44463</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>386</v>
-      </c>
-      <c r="K5" t="s">
-        <v>392</v>
+        <v>341</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>347</v>
+      </c>
+      <c r="M5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2">
         <v>44578</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="J6" t="s">
-        <v>386</v>
-      </c>
-      <c r="K6" t="s">
-        <v>393</v>
+        <v>341</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>348</v>
+      </c>
+      <c r="M6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2">
         <v>44503</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>386</v>
-      </c>
-      <c r="K7" t="s">
-        <v>394</v>
+        <v>341</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>349</v>
+      </c>
+      <c r="M7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>44511</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="J8" t="s">
-        <v>386</v>
-      </c>
-      <c r="K8" t="s">
-        <v>395</v>
+        <v>341</v>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>350</v>
+      </c>
+      <c r="M8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>44511</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="J9" t="s">
-        <v>387</v>
-      </c>
-      <c r="K9" t="s">
-        <v>396</v>
+        <v>342</v>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>351</v>
+      </c>
+      <c r="M9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2">
         <v>44511</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
-      </c>
-      <c r="K10" t="s">
-        <v>396</v>
+        <v>341</v>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>351</v>
+      </c>
+      <c r="M10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2">
         <v>44511</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="J11" t="s">
-        <v>386</v>
-      </c>
-      <c r="K11" t="s">
-        <v>397</v>
+        <v>341</v>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>352</v>
+      </c>
+      <c r="M11" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2">
         <v>44512</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="J12" t="s">
-        <v>386</v>
-      </c>
-      <c r="K12" t="s">
-        <v>398</v>
+        <v>341</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>353</v>
+      </c>
+      <c r="M12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2">
         <v>44512</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="J13" t="s">
-        <v>386</v>
-      </c>
-      <c r="K13" t="s">
-        <v>398</v>
+        <v>341</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>353</v>
+      </c>
+      <c r="M13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G14" s="2">
         <v>43824</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
-      </c>
-      <c r="K14" t="s">
-        <v>399</v>
+        <v>341</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>354</v>
+      </c>
+      <c r="M14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G15" s="2">
         <v>43825</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="J15" t="s">
-        <v>386</v>
-      </c>
-      <c r="K15" t="s">
-        <v>400</v>
+        <v>341</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>355</v>
+      </c>
+      <c r="M15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2">
         <v>43826</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="I16" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="J16" t="s">
-        <v>386</v>
-      </c>
-      <c r="K16" t="s">
-        <v>400</v>
+        <v>341</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>355</v>
+      </c>
+      <c r="M16" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G17" s="2">
         <v>43824</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="J17" t="s">
-        <v>386</v>
-      </c>
-      <c r="K17" t="s">
-        <v>400</v>
+        <v>341</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>355</v>
+      </c>
+      <c r="M17" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G18" s="2">
         <v>43824</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>386</v>
-      </c>
-      <c r="K18" t="s">
-        <v>401</v>
+        <v>341</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>356</v>
+      </c>
+      <c r="M18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2">
         <v>43534</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
-      </c>
-      <c r="K19" t="s">
-        <v>401</v>
+        <v>341</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>356</v>
+      </c>
+      <c r="M19" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2">
         <v>44484</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="I20" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>386</v>
-      </c>
-      <c r="K20" t="s">
-        <v>402</v>
+        <v>341</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>357</v>
+      </c>
+      <c r="M20" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G21" s="2">
         <v>43824</v>
       </c>
       <c r="H21" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>386</v>
-      </c>
-      <c r="K21" t="s">
-        <v>403</v>
+        <v>341</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>358</v>
+      </c>
+      <c r="M21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G22" s="2">
         <v>44596</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>386</v>
-      </c>
-      <c r="K22" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="L22" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G23" s="2">
         <v>44596</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>386</v>
-      </c>
-      <c r="K23" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="L23" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2">
         <v>44596</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="J24" t="s">
-        <v>386</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="L24" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G25" s="2">
         <v>44596</v>
       </c>
       <c r="H25" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>386</v>
-      </c>
-      <c r="K25" t="s">
-        <v>19</v>
+        <v>341</v>
       </c>
       <c r="L25" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G26" s="2">
         <v>43545</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="J26" t="s">
-        <v>386</v>
-      </c>
-      <c r="K26" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G27" s="2">
         <v>43545</v>
       </c>
       <c r="H27" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>386</v>
-      </c>
-      <c r="K27" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M27" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G28" s="2">
         <v>43545</v>
       </c>
       <c r="H28" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="J28" t="s">
-        <v>386</v>
-      </c>
-      <c r="K28" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G29" s="2">
         <v>43547</v>
       </c>
       <c r="H29" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="J29" t="s">
-        <v>386</v>
-      </c>
-      <c r="K29" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G30" s="2">
         <v>43552</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="J30" t="s">
-        <v>386</v>
-      </c>
-      <c r="K30" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M30" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G31" s="2">
         <v>43553</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>386</v>
-      </c>
-      <c r="K31" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G32" s="2">
         <v>43591</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="J32" t="s">
-        <v>386</v>
-      </c>
-      <c r="K32" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G33" s="2">
         <v>43556</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="J33" t="s">
-        <v>386</v>
-      </c>
-      <c r="K33" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M33" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G34" s="2">
         <v>43572</v>
       </c>
       <c r="H34" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="J34" t="s">
-        <v>386</v>
-      </c>
-      <c r="K34" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M34" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G35" s="2">
         <v>43673</v>
       </c>
       <c r="H35" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J35" t="s">
-        <v>386</v>
-      </c>
-      <c r="K35" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G36" s="2">
         <v>43752</v>
       </c>
       <c r="H36" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="J36" t="s">
-        <v>386</v>
-      </c>
-      <c r="K36" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M36" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
         <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>78</v>
       </c>
       <c r="G37" s="2">
         <v>43744</v>
       </c>
       <c r="H37" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="J37" t="s">
-        <v>386</v>
-      </c>
-      <c r="K37" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2">
         <v>43845</v>
       </c>
       <c r="H38" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
-        <v>386</v>
-      </c>
-      <c r="K38" t="s">
-        <v>404</v>
+        <v>341</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G39" s="2">
         <v>43785</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
-      </c>
-      <c r="K39" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G40" s="2">
         <v>43785</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="J40" t="s">
-        <v>386</v>
-      </c>
-      <c r="K40" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M40" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G41" s="2">
         <v>43787</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="J41" t="s">
-        <v>386</v>
-      </c>
-      <c r="K41" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M41" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G42" s="2">
         <v>43790</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="J42" t="s">
-        <v>386</v>
-      </c>
-      <c r="K42" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M42" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C43">
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G43" s="2">
         <v>43786</v>
       </c>
       <c r="H43" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>272</v>
+        <v>227</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
-      </c>
-      <c r="K43" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M43" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G44" s="2">
         <v>43788</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="J44" t="s">
-        <v>386</v>
-      </c>
-      <c r="K44" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M44" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G45" s="2">
         <v>43790</v>
       </c>
       <c r="H45" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="J45" t="s">
-        <v>386</v>
-      </c>
-      <c r="K45" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G46" s="2">
         <v>43790</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="J46" t="s">
-        <v>386</v>
-      </c>
-      <c r="K46" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M46" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G47" s="2">
         <v>43790</v>
       </c>
       <c r="H47" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>276</v>
+        <v>231</v>
       </c>
       <c r="J47" t="s">
-        <v>386</v>
-      </c>
-      <c r="K47" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2">
         <v>43791</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="J48" t="s">
-        <v>386</v>
-      </c>
-      <c r="K48" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M48" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G49" s="2">
         <v>43791</v>
       </c>
       <c r="H49" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="J49" t="s">
-        <v>386</v>
-      </c>
-      <c r="K49" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>360</v>
+      </c>
+      <c r="M49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G50" s="2">
         <v>44435</v>
       </c>
       <c r="H50" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="J50" t="s">
-        <v>386</v>
-      </c>
-      <c r="K50" t="s">
-        <v>406</v>
+        <v>341</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>361</v>
+      </c>
+      <c r="M50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>28</v>
       </c>
       <c r="F51" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G51" s="2">
         <v>44454</v>
       </c>
       <c r="H51" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>280</v>
+        <v>235</v>
       </c>
       <c r="J51" t="s">
-        <v>386</v>
-      </c>
-      <c r="K51" t="s">
-        <v>407</v>
+        <v>341</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>362</v>
+      </c>
+      <c r="M51" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>894</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G52" s="2">
         <v>43732</v>
       </c>
       <c r="H52" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>281</v>
+        <v>236</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
-      </c>
-      <c r="K52" t="s">
-        <v>408</v>
+        <v>341</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>363</v>
+      </c>
+      <c r="M52" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>894</v>
       </c>
       <c r="F53" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G53" s="2">
         <v>43686</v>
       </c>
       <c r="H53" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="J53" t="s">
-        <v>386</v>
-      </c>
-      <c r="K53" t="s">
-        <v>409</v>
+        <v>341</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>364</v>
+      </c>
+      <c r="M53" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>327342</v>
+      </c>
+      <c r="D54">
+        <v>20328</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G54" s="2">
         <v>44448</v>
       </c>
       <c r="H54" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="J54" t="s">
-        <v>386</v>
-      </c>
-      <c r="K54" t="s">
-        <v>410</v>
+        <v>341</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>365</v>
+      </c>
+      <c r="M54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>326159</v>
+      </c>
+      <c r="D55">
+        <v>20355</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G55" s="2">
         <v>44544</v>
       </c>
       <c r="H55" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="J55" t="s">
-        <v>386</v>
-      </c>
-      <c r="K55" t="s">
-        <v>411</v>
+        <v>341</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>366</v>
+      </c>
+      <c r="M55" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" t="s">
-        <v>40</v>
-      </c>
-      <c r="D56" t="s">
-        <v>53</v>
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>631</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G56" s="2">
         <v>44310</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="I56" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
-      </c>
-      <c r="K56" t="s">
-        <v>412</v>
+        <v>341</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>367</v>
+      </c>
+      <c r="M56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>631</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G57" s="2">
         <v>44516</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="J57" t="s">
-        <v>386</v>
-      </c>
-      <c r="K57" t="s">
-        <v>413</v>
+        <v>341</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>368</v>
+      </c>
+      <c r="M57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>631</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G58" s="2">
         <v>44516</v>
       </c>
       <c r="H58" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="I58" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="J58" t="s">
-        <v>386</v>
-      </c>
-      <c r="K58" t="s">
-        <v>413</v>
+        <v>341</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>368</v>
+      </c>
+      <c r="M58" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>631</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F59" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G59" s="2">
         <v>44516</v>
       </c>
       <c r="H59" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="J59" t="s">
-        <v>386</v>
-      </c>
-      <c r="K59" t="s">
-        <v>413</v>
+        <v>341</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>368</v>
+      </c>
+      <c r="M59" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>631</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G60" s="2">
         <v>44517</v>
       </c>
       <c r="H60" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
-      </c>
-      <c r="K60" t="s">
-        <v>414</v>
+        <v>341</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>369</v>
+      </c>
+      <c r="M60" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>631</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G61" s="2">
         <v>44517</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
-      </c>
-      <c r="K61" t="s">
-        <v>414</v>
+        <v>341</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>369</v>
+      </c>
+      <c r="M61" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>54</v>
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>631</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G62" s="2">
         <v>44516</v>
       </c>
       <c r="H62" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="J62" t="s">
-        <v>386</v>
-      </c>
-      <c r="K62" t="s">
-        <v>415</v>
+        <v>341</v>
+      </c>
+      <c r="K62" t="b">
+        <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>370</v>
+      </c>
+      <c r="M62" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>324293</v>
+      </c>
+      <c r="D63">
+        <v>20323</v>
       </c>
       <c r="E63" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G63" s="2">
         <v>44437</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="I63" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="J63" t="s">
-        <v>386</v>
-      </c>
-      <c r="K63" t="s">
-        <v>416</v>
+        <v>341</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>371</v>
+      </c>
+      <c r="M63" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="C64">
+        <v>324293</v>
+      </c>
+      <c r="D64">
+        <v>20323</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G64" s="2">
         <v>44434</v>
       </c>
       <c r="H64" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="J64" t="s">
-        <v>386</v>
-      </c>
-      <c r="K64" t="s">
-        <v>417</v>
+        <v>341</v>
+      </c>
+      <c r="K64" t="b">
+        <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>372</v>
+      </c>
+      <c r="M64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D65" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>31</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G65" s="2">
         <v>44592</v>
       </c>
       <c r="H65" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="I65" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="J65" t="s">
-        <v>386</v>
-      </c>
-      <c r="K65" t="s">
-        <v>418</v>
+        <v>341</v>
+      </c>
+      <c r="K65" t="b">
+        <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>373</v>
+      </c>
+      <c r="M65" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G66" s="2">
         <v>44592</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="I66" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="J66" t="s">
-        <v>386</v>
-      </c>
-      <c r="K66" t="s">
-        <v>418</v>
+        <v>341</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>373</v>
+      </c>
+      <c r="M66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="C67">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>31</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G67" s="2">
         <v>44593</v>
       </c>
       <c r="H67" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="I67" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="J67" t="s">
-        <v>386</v>
-      </c>
-      <c r="K67" t="s">
-        <v>418</v>
+        <v>341</v>
+      </c>
+      <c r="K67" t="b">
+        <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>373</v>
+      </c>
+      <c r="M67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
-        <v>42</v>
-      </c>
-      <c r="D68" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G68" s="2">
         <v>44573</v>
       </c>
       <c r="H68" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I68" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="J68" t="s">
-        <v>386</v>
-      </c>
-      <c r="K68" t="s">
-        <v>419</v>
+        <v>341</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>374</v>
+      </c>
+      <c r="M68" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G69" s="2">
         <v>44573</v>
       </c>
       <c r="H69" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="J69" t="s">
-        <v>386</v>
-      </c>
-      <c r="K69" t="s">
-        <v>419</v>
+        <v>341</v>
+      </c>
+      <c r="K69" t="b">
+        <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>374</v>
+      </c>
+      <c r="M69" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G70" s="2">
         <v>44573</v>
       </c>
       <c r="H70" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="J70" t="s">
-        <v>386</v>
-      </c>
-      <c r="K70" t="s">
-        <v>419</v>
+        <v>341</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>374</v>
+      </c>
+      <c r="M70" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>30</v>
       </c>
       <c r="F71" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G71" s="2">
         <v>44573</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="I71" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="J71" t="s">
-        <v>386</v>
-      </c>
-      <c r="K71" t="s">
-        <v>419</v>
+        <v>341</v>
+      </c>
+      <c r="K71" t="b">
+        <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>374</v>
+      </c>
+      <c r="M71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
-        <v>42</v>
-      </c>
-      <c r="D72" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G72" s="2">
         <v>44560</v>
       </c>
       <c r="H72" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="I72" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
       <c r="J72" t="s">
-        <v>386</v>
-      </c>
-      <c r="K72" t="s">
-        <v>420</v>
+        <v>341</v>
+      </c>
+      <c r="K72" t="b">
+        <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>375</v>
+      </c>
+      <c r="M72" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73">
+        <v>28</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G73" s="2">
         <v>44559</v>
       </c>
       <c r="H73" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="I73" t="s">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="J73" t="s">
-        <v>386</v>
-      </c>
-      <c r="K73" t="s">
-        <v>420</v>
+        <v>341</v>
+      </c>
+      <c r="K73" t="b">
+        <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>375</v>
+      </c>
+      <c r="M73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G74" s="2">
         <v>44559</v>
       </c>
       <c r="H74" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="I74" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="J74" t="s">
-        <v>386</v>
-      </c>
-      <c r="K74" t="s">
-        <v>420</v>
+        <v>341</v>
+      </c>
+      <c r="K74" t="b">
+        <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>375</v>
+      </c>
+      <c r="M74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G75" s="2">
         <v>44562</v>
       </c>
       <c r="H75" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>304</v>
+        <v>259</v>
       </c>
       <c r="J75" t="s">
-        <v>386</v>
-      </c>
-      <c r="K75" t="s">
-        <v>421</v>
+        <v>341</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>376</v>
+      </c>
+      <c r="M75" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>42</v>
-      </c>
-      <c r="D76" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>22</v>
+      </c>
+      <c r="D76">
+        <v>29</v>
       </c>
       <c r="F76" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G76" s="2">
         <v>44564</v>
       </c>
       <c r="H76" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I76" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="J76" t="s">
-        <v>386</v>
-      </c>
-      <c r="K76" t="s">
-        <v>421</v>
+        <v>341</v>
+      </c>
+      <c r="K76" t="b">
+        <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>376</v>
+      </c>
+      <c r="M76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D77" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C77">
+        <v>22</v>
+      </c>
+      <c r="D77">
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G77" s="2">
         <v>44561</v>
       </c>
       <c r="H77" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="I77" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="J77" t="s">
-        <v>386</v>
-      </c>
-      <c r="K77" t="s">
-        <v>421</v>
+        <v>341</v>
+      </c>
+      <c r="K77" t="b">
+        <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>376</v>
+      </c>
+      <c r="M77" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D78" t="s">
-        <v>58</v>
+        <v>17</v>
+      </c>
+      <c r="C78">
+        <v>22</v>
+      </c>
+      <c r="D78">
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G78" s="2">
         <v>44561</v>
       </c>
       <c r="H78" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="I78" t="s">
-        <v>307</v>
+        <v>262</v>
       </c>
       <c r="J78" t="s">
-        <v>386</v>
-      </c>
-      <c r="K78" t="s">
-        <v>421</v>
+        <v>341</v>
+      </c>
+      <c r="K78" t="b">
+        <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>376</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G79" s="2">
         <v>44559</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="I79" t="s">
-        <v>308</v>
+        <v>263</v>
       </c>
       <c r="J79" t="s">
-        <v>386</v>
-      </c>
-      <c r="K79" t="s">
-        <v>422</v>
+        <v>341</v>
+      </c>
+      <c r="K79" t="b">
+        <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>377</v>
+      </c>
+      <c r="M79" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>42</v>
-      </c>
-      <c r="D80" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
       </c>
       <c r="F80" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G80" s="2">
         <v>44558</v>
       </c>
       <c r="H80" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="I80" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="J80" t="s">
-        <v>386</v>
-      </c>
-      <c r="K80" t="s">
-        <v>422</v>
+        <v>341</v>
+      </c>
+      <c r="K80" t="b">
+        <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12">
+        <v>377</v>
+      </c>
+      <c r="M80" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
       </c>
       <c r="F81" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G81" s="2">
         <v>44558</v>
       </c>
       <c r="H81" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="I81" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="J81" t="s">
-        <v>386</v>
-      </c>
-      <c r="K81" t="s">
-        <v>422</v>
+        <v>341</v>
+      </c>
+      <c r="K81" t="b">
+        <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+        <v>377</v>
+      </c>
+      <c r="M81" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="C82">
+        <v>22</v>
+      </c>
+      <c r="D82">
+        <v>27</v>
       </c>
       <c r="F82" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G82" s="2">
         <v>44558</v>
       </c>
       <c r="H82" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="I82" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="J82" t="s">
-        <v>386</v>
-      </c>
-      <c r="K82" t="s">
-        <v>422</v>
+        <v>341</v>
+      </c>
+      <c r="K82" t="b">
+        <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>377</v>
+      </c>
+      <c r="M82" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>42</v>
-      </c>
-      <c r="D83" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G83" s="2">
         <v>44411</v>
       </c>
       <c r="H83" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I83" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="J83" t="s">
-        <v>386</v>
-      </c>
-      <c r="K83" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K83" t="b">
+        <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
-        <v>42</v>
-      </c>
-      <c r="D84" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>22</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G84" s="2">
         <v>44414</v>
       </c>
       <c r="H84" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="I84" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="J84" t="s">
-        <v>386</v>
-      </c>
-      <c r="K84" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K84" t="b">
+        <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M84" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
-        <v>42</v>
-      </c>
-      <c r="D85" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>18</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G85" s="2">
         <v>44412</v>
       </c>
       <c r="H85" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="I85" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="J85" t="s">
-        <v>386</v>
-      </c>
-      <c r="K85" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K85" t="b">
+        <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M85" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>42</v>
-      </c>
-      <c r="D86" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
       </c>
       <c r="F86" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G86" s="2">
         <v>44411</v>
       </c>
       <c r="H86" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="J86" t="s">
-        <v>386</v>
-      </c>
-      <c r="K86" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K86" t="b">
+        <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M86" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>42</v>
-      </c>
-      <c r="D87" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G87" s="2">
         <v>44424</v>
       </c>
       <c r="H87" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="J87" t="s">
-        <v>386</v>
-      </c>
-      <c r="K87" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K87" t="b">
+        <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M87" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G88" s="2">
         <v>44468</v>
       </c>
       <c r="H88" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="I88" t="s">
-        <v>317</v>
+        <v>272</v>
       </c>
       <c r="J88" t="s">
-        <v>386</v>
-      </c>
-      <c r="K88" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K88" t="b">
+        <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M88" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>42</v>
-      </c>
-      <c r="D89" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>22</v>
+      </c>
+      <c r="D89">
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G89" s="2">
         <v>44529</v>
       </c>
       <c r="H89" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="I89" t="s">
-        <v>318</v>
+        <v>273</v>
       </c>
       <c r="J89" t="s">
-        <v>386</v>
-      </c>
-      <c r="K89" t="s">
-        <v>424</v>
+        <v>341</v>
+      </c>
+      <c r="K89" t="b">
+        <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
+        <v>379</v>
+      </c>
+      <c r="M89" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>42</v>
-      </c>
-      <c r="D90" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G90" s="2">
         <v>44529</v>
       </c>
       <c r="H90" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="I90" t="s">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="J90" t="s">
-        <v>386</v>
-      </c>
-      <c r="K90" t="s">
-        <v>424</v>
+        <v>341</v>
+      </c>
+      <c r="K90" t="b">
+        <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
+        <v>379</v>
+      </c>
+      <c r="M90" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C91">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>25</v>
       </c>
       <c r="F91" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G91" s="2">
         <v>44530</v>
       </c>
       <c r="H91" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="I91" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="J91" t="s">
-        <v>386</v>
-      </c>
-      <c r="K91" t="s">
-        <v>424</v>
+        <v>341</v>
+      </c>
+      <c r="K91" t="b">
+        <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
+        <v>379</v>
+      </c>
+      <c r="M91" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>42</v>
-      </c>
-      <c r="D92" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>25</v>
       </c>
       <c r="F92" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G92" s="2">
         <v>44529</v>
       </c>
       <c r="H92" t="s">
-        <v>169</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="J92" t="s">
-        <v>386</v>
-      </c>
-      <c r="K92" t="s">
-        <v>424</v>
+        <v>341</v>
+      </c>
+      <c r="K92" t="b">
+        <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
+        <v>379</v>
+      </c>
+      <c r="M92" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>42</v>
-      </c>
-      <c r="D93" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="C93">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G93" s="2">
         <v>44529</v>
       </c>
       <c r="H93" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="J93" t="s">
-        <v>386</v>
-      </c>
-      <c r="K93" t="s">
-        <v>424</v>
+        <v>341</v>
+      </c>
+      <c r="K93" t="b">
+        <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12">
+        <v>379</v>
+      </c>
+      <c r="M93" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C94">
+        <v>22</v>
+      </c>
+      <c r="D94">
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G94" s="2">
         <v>44526</v>
       </c>
       <c r="H94" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="I94" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="J94" t="s">
-        <v>386</v>
-      </c>
-      <c r="K94" t="s">
-        <v>425</v>
+        <v>341</v>
+      </c>
+      <c r="K94" t="b">
+        <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>380</v>
+      </c>
+      <c r="M94" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
-        <v>42</v>
-      </c>
-      <c r="D95" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>22</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G95" s="2">
         <v>44525</v>
       </c>
       <c r="H95" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="I95" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="J95" t="s">
-        <v>386</v>
-      </c>
-      <c r="K95" t="s">
-        <v>425</v>
+        <v>341</v>
+      </c>
+      <c r="K95" t="b">
+        <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12">
+        <v>380</v>
+      </c>
+      <c r="M95" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s">
-        <v>42</v>
-      </c>
-      <c r="D96" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C96">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G96" s="2">
         <v>44525</v>
       </c>
       <c r="H96" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="J96" t="s">
-        <v>386</v>
-      </c>
-      <c r="K96" t="s">
-        <v>425</v>
+        <v>341</v>
+      </c>
+      <c r="K96" t="b">
+        <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>380</v>
+      </c>
+      <c r="M96" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>24</v>
       </c>
       <c r="F97" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G97" s="2">
         <v>44525</v>
       </c>
       <c r="H97" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="I97" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="J97" t="s">
-        <v>386</v>
-      </c>
-      <c r="K97" t="s">
-        <v>425</v>
+        <v>341</v>
+      </c>
+      <c r="K97" t="b">
+        <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12">
+        <v>380</v>
+      </c>
+      <c r="M97" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" t="s">
-        <v>61</v>
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>24</v>
       </c>
       <c r="F98" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G98" s="2">
         <v>44525</v>
       </c>
       <c r="H98" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="I98" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="J98" t="s">
-        <v>386</v>
-      </c>
-      <c r="K98" t="s">
-        <v>425</v>
+        <v>341</v>
+      </c>
+      <c r="K98" t="b">
+        <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12">
+        <v>380</v>
+      </c>
+      <c r="M98" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
-        <v>42</v>
-      </c>
-      <c r="D99" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="C99">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G99" s="2">
         <v>44537</v>
       </c>
       <c r="H99" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="I99" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="J99" t="s">
-        <v>386</v>
-      </c>
-      <c r="K99" t="s">
-        <v>426</v>
+        <v>341</v>
+      </c>
+      <c r="K99" t="b">
+        <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>381</v>
+      </c>
+      <c r="M99" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>22</v>
+      </c>
+      <c r="D100">
+        <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G100" s="2">
         <v>44536</v>
       </c>
       <c r="H100" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="I100" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="J100" t="s">
-        <v>386</v>
-      </c>
-      <c r="K100" t="s">
-        <v>426</v>
+        <v>341</v>
+      </c>
+      <c r="K100" t="b">
+        <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <v>381</v>
+      </c>
+      <c r="M100" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D101" t="s">
-        <v>62</v>
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G101" s="2">
         <v>44536</v>
       </c>
       <c r="H101" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="J101" t="s">
-        <v>386</v>
-      </c>
-      <c r="K101" t="s">
-        <v>426</v>
+        <v>341</v>
+      </c>
+      <c r="K101" t="b">
+        <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12">
+        <v>381</v>
+      </c>
+      <c r="M101" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
-        <v>42</v>
-      </c>
-      <c r="D102" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C102">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>23</v>
       </c>
       <c r="F102" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G102" s="2">
         <v>44510</v>
       </c>
       <c r="H102" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="I102" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="J102" t="s">
-        <v>386</v>
-      </c>
-      <c r="K102" t="s">
-        <v>427</v>
+        <v>341</v>
+      </c>
+      <c r="K102" t="b">
+        <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
+        <v>382</v>
+      </c>
+      <c r="M102" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>42</v>
-      </c>
-      <c r="D103" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C103">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>23</v>
       </c>
       <c r="F103" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G103" s="2">
         <v>44510</v>
       </c>
       <c r="H103" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="I103" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="J103" t="s">
-        <v>386</v>
-      </c>
-      <c r="K103" t="s">
-        <v>427</v>
+        <v>341</v>
+      </c>
+      <c r="K103" t="b">
+        <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
+        <v>382</v>
+      </c>
+      <c r="M103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>42</v>
-      </c>
-      <c r="D104" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>22</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
       </c>
       <c r="F104" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G104" s="2">
         <v>44511</v>
       </c>
       <c r="H104" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="I104" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="J104" t="s">
-        <v>386</v>
-      </c>
-      <c r="K104" t="s">
-        <v>427</v>
+        <v>341</v>
+      </c>
+      <c r="K104" t="b">
+        <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
+        <v>382</v>
+      </c>
+      <c r="M104" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
-        <v>42</v>
-      </c>
-      <c r="D105" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>22</v>
+      </c>
+      <c r="D105">
+        <v>23</v>
       </c>
       <c r="F105" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G105" s="2">
         <v>44510</v>
       </c>
       <c r="H105" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="J105" t="s">
-        <v>386</v>
-      </c>
-      <c r="K105" t="s">
-        <v>427</v>
+        <v>341</v>
+      </c>
+      <c r="K105" t="b">
+        <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12">
+        <v>382</v>
+      </c>
+      <c r="M105" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>42</v>
-      </c>
-      <c r="D106" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G106" s="2">
         <v>44412</v>
       </c>
       <c r="H106" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="I106" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="J106" t="s">
-        <v>386</v>
-      </c>
-      <c r="K106" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K106" t="b">
+        <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M106" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
-        <v>42</v>
-      </c>
-      <c r="D107" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>22</v>
+      </c>
+      <c r="D107">
+        <v>18</v>
       </c>
       <c r="F107" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G107" s="2">
         <v>44411</v>
       </c>
       <c r="H107" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="I107" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="J107" t="s">
-        <v>386</v>
-      </c>
-      <c r="K107" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K107" t="b">
+        <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M107" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>42</v>
-      </c>
-      <c r="D108" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G108" s="2">
         <v>44411</v>
       </c>
       <c r="H108" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="I108" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="J108" t="s">
-        <v>386</v>
-      </c>
-      <c r="K108" t="s">
-        <v>423</v>
+        <v>341</v>
+      </c>
+      <c r="K108" t="b">
+        <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12">
+        <v>378</v>
+      </c>
+      <c r="M108" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
-        <v>42</v>
-      </c>
-      <c r="D109" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="C109">
+        <v>22</v>
+      </c>
+      <c r="D109">
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G109" s="2">
         <v>44406</v>
       </c>
       <c r="H109" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="I109" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="J109" t="s">
-        <v>386</v>
-      </c>
-      <c r="K109" t="s">
-        <v>428</v>
+        <v>341</v>
+      </c>
+      <c r="K109" t="b">
+        <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12">
+        <v>383</v>
+      </c>
+      <c r="M109" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>42</v>
-      </c>
-      <c r="D110" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="C110">
+        <v>22</v>
+      </c>
+      <c r="D110">
+        <v>17</v>
       </c>
       <c r="F110" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G110" s="2">
         <v>44406</v>
       </c>
       <c r="H110" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="I110" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="J110" t="s">
-        <v>386</v>
-      </c>
-      <c r="K110" t="s">
-        <v>428</v>
+        <v>341</v>
+      </c>
+      <c r="K110" t="b">
+        <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12">
+        <v>383</v>
+      </c>
+      <c r="M110" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>22</v>
+      </c>
+      <c r="D111">
+        <v>17</v>
       </c>
       <c r="F111" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G111" s="2">
         <v>44407</v>
       </c>
       <c r="H111" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="I111" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="J111" t="s">
-        <v>386</v>
-      </c>
-      <c r="K111" t="s">
-        <v>428</v>
+        <v>341</v>
+      </c>
+      <c r="K111" t="b">
+        <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>383</v>
+      </c>
+      <c r="M111" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <v>22</v>
+      </c>
+      <c r="D112">
+        <v>17</v>
       </c>
       <c r="F112" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G112" s="2">
         <v>44504</v>
       </c>
       <c r="H112" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="I112" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="J112" t="s">
-        <v>386</v>
-      </c>
-      <c r="K112" t="s">
-        <v>428</v>
+        <v>341</v>
+      </c>
+      <c r="K112" t="b">
+        <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12">
+        <v>383</v>
+      </c>
+      <c r="M112" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
-        <v>42</v>
-      </c>
-      <c r="D113" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C113">
+        <v>22</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G113" s="2">
         <v>44375</v>
       </c>
       <c r="H113" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="I113" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="J113" t="s">
-        <v>386</v>
-      </c>
-      <c r="K113" t="s">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="K113" t="b">
+        <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12">
+        <v>384</v>
+      </c>
+      <c r="M113" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
-        <v>42</v>
-      </c>
-      <c r="D114" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C114">
+        <v>22</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G114" s="2">
         <v>44375</v>
       </c>
       <c r="H114" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="I114" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="J114" t="s">
-        <v>386</v>
-      </c>
-      <c r="K114" t="s">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="K114" t="b">
+        <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12">
+        <v>384</v>
+      </c>
+      <c r="M114" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
-        <v>42</v>
-      </c>
-      <c r="D115" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>22</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G115" s="2">
         <v>44376</v>
       </c>
       <c r="H115" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="I115" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="J115" t="s">
-        <v>386</v>
-      </c>
-      <c r="K115" t="s">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="K115" t="b">
+        <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12">
+        <v>384</v>
+      </c>
+      <c r="M115" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
-        <v>42</v>
-      </c>
-      <c r="D116" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>22</v>
+      </c>
+      <c r="D116">
+        <v>15</v>
       </c>
       <c r="F116" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G116" s="2">
         <v>44375</v>
       </c>
       <c r="H116" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="I116" t="s">
-        <v>343</v>
+        <v>298</v>
       </c>
       <c r="J116" t="s">
-        <v>386</v>
-      </c>
-      <c r="K116" t="s">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="K116" t="b">
+        <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12">
+        <v>384</v>
+      </c>
+      <c r="M116" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>42</v>
-      </c>
-      <c r="D117" t="s">
-        <v>34</v>
+        <v>17</v>
+      </c>
+      <c r="C117">
+        <v>22</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G117" s="2">
         <v>44375</v>
       </c>
       <c r="H117" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="I117" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="J117" t="s">
-        <v>386</v>
-      </c>
-      <c r="K117" t="s">
-        <v>429</v>
+        <v>341</v>
+      </c>
+      <c r="K117" t="b">
+        <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12">
+        <v>384</v>
+      </c>
+      <c r="M117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>42</v>
-      </c>
-      <c r="D118" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>22</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G118" s="2">
         <v>44348</v>
       </c>
       <c r="H118" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="I118" t="s">
-        <v>345</v>
+        <v>300</v>
       </c>
       <c r="J118" t="s">
-        <v>386</v>
-      </c>
-      <c r="K118" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="K118" t="b">
+        <v>0</v>
       </c>
       <c r="L118" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>42</v>
-      </c>
-      <c r="D119" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C119">
+        <v>22</v>
+      </c>
+      <c r="D119">
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G119" s="2">
         <v>44348</v>
       </c>
       <c r="H119" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="I119" t="s">
-        <v>346</v>
+        <v>301</v>
       </c>
       <c r="J119" t="s">
-        <v>386</v>
-      </c>
-      <c r="K119" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="K119" t="b">
+        <v>0</v>
       </c>
       <c r="L119" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M119" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
-        <v>42</v>
-      </c>
-      <c r="D120" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G120" s="2">
         <v>44349</v>
       </c>
       <c r="H120" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="I120" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="J120" t="s">
-        <v>386</v>
-      </c>
-      <c r="K120" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="K120" t="b">
+        <v>0</v>
       </c>
       <c r="L120" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M120" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>42</v>
-      </c>
-      <c r="D121" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C121">
+        <v>22</v>
+      </c>
+      <c r="D121">
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G121" s="2">
         <v>44348</v>
       </c>
       <c r="H121" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="I121" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="J121" t="s">
-        <v>386</v>
-      </c>
-      <c r="K121" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="K121" t="b">
+        <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M121" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G122" s="2">
         <v>44348</v>
       </c>
       <c r="H122" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="I122" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="J122" t="s">
-        <v>386</v>
-      </c>
-      <c r="K122" t="s">
-        <v>430</v>
+        <v>341</v>
+      </c>
+      <c r="K122" t="b">
+        <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12">
+        <v>385</v>
+      </c>
+      <c r="M122" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G123" s="2">
         <v>44495</v>
       </c>
       <c r="H123" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="I123" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="J123" t="s">
+        <v>341</v>
+      </c>
+      <c r="K123" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" t="s">
         <v>386</v>
       </c>
-      <c r="K123" t="s">
-        <v>431</v>
-      </c>
-      <c r="L123" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C124">
+        <v>22</v>
+      </c>
+      <c r="D124">
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G124" s="2">
         <v>44496</v>
       </c>
       <c r="H124" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="I124" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="J124" t="s">
+        <v>341</v>
+      </c>
+      <c r="K124" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" t="s">
         <v>386</v>
       </c>
-      <c r="K124" t="s">
-        <v>431</v>
-      </c>
-      <c r="L124" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>22</v>
+      </c>
+      <c r="D125">
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G125" s="2">
         <v>44496</v>
       </c>
       <c r="H125" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="I125" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="J125" t="s">
+        <v>341</v>
+      </c>
+      <c r="K125" t="b">
+        <v>0</v>
+      </c>
+      <c r="L125" t="s">
         <v>386</v>
       </c>
-      <c r="K125" t="s">
-        <v>431</v>
-      </c>
-      <c r="L125" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <v>22</v>
+      </c>
+      <c r="D126">
+        <v>21</v>
       </c>
       <c r="F126" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G126" s="2">
         <v>44465</v>
       </c>
       <c r="H126" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="I126" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="J126" t="s">
-        <v>386</v>
-      </c>
-      <c r="K126" t="s">
-        <v>432</v>
+        <v>341</v>
+      </c>
+      <c r="K126" t="b">
+        <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12">
+        <v>387</v>
+      </c>
+      <c r="M126" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>42</v>
-      </c>
-      <c r="D127" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>22</v>
+      </c>
+      <c r="D127">
+        <v>21</v>
       </c>
       <c r="F127" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G127" s="2">
         <v>44464</v>
       </c>
       <c r="H127" t="s">
-        <v>202</v>
+        <v>157</v>
       </c>
       <c r="I127" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="J127" t="s">
-        <v>386</v>
-      </c>
-      <c r="K127" t="s">
-        <v>432</v>
+        <v>341</v>
+      </c>
+      <c r="K127" t="b">
+        <v>0</v>
       </c>
       <c r="L127" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12">
+        <v>387</v>
+      </c>
+      <c r="M127" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
-        <v>42</v>
-      </c>
-      <c r="D128" t="s">
-        <v>66</v>
+        <v>17</v>
+      </c>
+      <c r="C128">
+        <v>22</v>
+      </c>
+      <c r="D128">
+        <v>21</v>
       </c>
       <c r="F128" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G128" s="2">
         <v>44464</v>
       </c>
       <c r="H128" t="s">
-        <v>203</v>
+        <v>158</v>
       </c>
       <c r="I128" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
       <c r="J128" t="s">
-        <v>386</v>
-      </c>
-      <c r="K128" t="s">
-        <v>432</v>
+        <v>341</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
       </c>
       <c r="L128" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>387</v>
+      </c>
+      <c r="M128" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
-        <v>42</v>
-      </c>
-      <c r="D129" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>22</v>
+      </c>
+      <c r="D129">
+        <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G129" s="2">
         <v>44433</v>
       </c>
       <c r="H129" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="I129" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="J129" t="s">
-        <v>386</v>
-      </c>
-      <c r="K129" t="s">
-        <v>433</v>
+        <v>341</v>
+      </c>
+      <c r="K129" t="b">
+        <v>0</v>
       </c>
       <c r="L129" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>388</v>
+      </c>
+      <c r="M129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>42</v>
-      </c>
-      <c r="D130" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>22</v>
+      </c>
+      <c r="D130">
+        <v>19</v>
       </c>
       <c r="F130" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G130" s="2">
         <v>44432</v>
       </c>
       <c r="H130" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="I130" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="J130" t="s">
-        <v>386</v>
-      </c>
-      <c r="K130" t="s">
-        <v>433</v>
+        <v>341</v>
+      </c>
+      <c r="K130" t="b">
+        <v>0</v>
       </c>
       <c r="L130" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>388</v>
+      </c>
+      <c r="M130" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>42</v>
-      </c>
-      <c r="D131" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C131">
+        <v>22</v>
+      </c>
+      <c r="D131">
+        <v>19</v>
       </c>
       <c r="F131" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G131" s="2">
         <v>44432</v>
       </c>
       <c r="H131" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
       <c r="I131" t="s">
-        <v>357</v>
+        <v>312</v>
       </c>
       <c r="J131" t="s">
-        <v>386</v>
-      </c>
-      <c r="K131" t="s">
-        <v>433</v>
+        <v>341</v>
+      </c>
+      <c r="K131" t="b">
+        <v>0</v>
       </c>
       <c r="L131" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>388</v>
+      </c>
+      <c r="M131" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
-      </c>
-      <c r="C132" t="s">
-        <v>42</v>
-      </c>
-      <c r="D132" t="s">
-        <v>67</v>
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>19</v>
       </c>
       <c r="F132" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G132" s="2">
         <v>44432</v>
       </c>
       <c r="H132" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="I132" t="s">
-        <v>358</v>
+        <v>313</v>
       </c>
       <c r="J132" t="s">
-        <v>386</v>
-      </c>
-      <c r="K132" t="s">
-        <v>433</v>
+        <v>341</v>
+      </c>
+      <c r="K132" t="b">
+        <v>0</v>
       </c>
       <c r="L132" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>388</v>
+      </c>
+      <c r="M132" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
-      </c>
-      <c r="C133" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C133">
+        <v>22</v>
+      </c>
+      <c r="D133">
+        <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G133" s="2">
         <v>44446</v>
       </c>
       <c r="H133" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="I133" t="s">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="J133" t="s">
-        <v>386</v>
-      </c>
-      <c r="K133" t="s">
-        <v>434</v>
+        <v>341</v>
+      </c>
+      <c r="K133" t="b">
+        <v>0</v>
       </c>
       <c r="L133" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>389</v>
+      </c>
+      <c r="M133" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
-      </c>
-      <c r="C134" t="s">
-        <v>42</v>
-      </c>
-      <c r="D134" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C134">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G134" s="2">
         <v>44446</v>
       </c>
       <c r="H134" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="I134" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="J134" t="s">
-        <v>386</v>
-      </c>
-      <c r="K134" t="s">
-        <v>434</v>
+        <v>341</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
       </c>
       <c r="L134" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+        <v>389</v>
+      </c>
+      <c r="M134" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
-      </c>
-      <c r="C135" t="s">
-        <v>42</v>
-      </c>
-      <c r="D135" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="C135">
+        <v>22</v>
+      </c>
+      <c r="D135">
+        <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G135" s="2">
         <v>44446</v>
       </c>
       <c r="H135" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="I135" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="J135" t="s">
-        <v>386</v>
-      </c>
-      <c r="K135" t="s">
-        <v>434</v>
+        <v>341</v>
+      </c>
+      <c r="K135" t="b">
+        <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>389</v>
+      </c>
+      <c r="M135" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>37</v>
-      </c>
-      <c r="D136" t="s">
-        <v>36</v>
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>894</v>
+      </c>
+      <c r="D136">
+        <v>28</v>
       </c>
       <c r="E136" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G136" s="2">
         <v>43853</v>
       </c>
       <c r="H136" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="I136" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="J136" t="s">
-        <v>386</v>
-      </c>
-      <c r="K136" t="s">
-        <v>435</v>
+        <v>341</v>
+      </c>
+      <c r="K136" t="b">
+        <v>0</v>
       </c>
       <c r="L136" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>390</v>
+      </c>
+      <c r="M136" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="C137">
+        <v>894</v>
+      </c>
+      <c r="D137">
+        <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G137" s="2">
         <v>43699</v>
       </c>
       <c r="H137" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="I137" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="J137" t="s">
-        <v>386</v>
-      </c>
-      <c r="K137" t="s">
-        <v>436</v>
+        <v>341</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
       </c>
       <c r="L137" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>391</v>
+      </c>
+      <c r="M137" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>37</v>
-      </c>
-      <c r="D138" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C138">
+        <v>894</v>
+      </c>
+      <c r="D138">
+        <v>21</v>
       </c>
       <c r="E138" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F138" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G138" s="2">
         <v>43738</v>
       </c>
       <c r="H138" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="I138" t="s">
-        <v>364</v>
+        <v>319</v>
       </c>
       <c r="J138" t="s">
-        <v>386</v>
-      </c>
-      <c r="K138" t="s">
-        <v>437</v>
+        <v>341</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
       </c>
       <c r="L138" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>392</v>
+      </c>
+      <c r="M138" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>37</v>
-      </c>
-      <c r="D139" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>894</v>
+      </c>
+      <c r="D139">
+        <v>21</v>
       </c>
       <c r="E139" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F139" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G139" s="2">
         <v>43741</v>
       </c>
       <c r="H139" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="I139" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="J139" t="s">
-        <v>386</v>
-      </c>
-      <c r="K139" t="s">
-        <v>438</v>
+        <v>341</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
       </c>
       <c r="L139" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>393</v>
+      </c>
+      <c r="M139" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>894</v>
+      </c>
+      <c r="D140">
+        <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F140" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G140" s="2">
         <v>43725</v>
       </c>
       <c r="H140" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="I140" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="J140" t="s">
-        <v>386</v>
-      </c>
-      <c r="K140" t="s">
-        <v>439</v>
+        <v>341</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
       </c>
       <c r="L140" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>394</v>
+      </c>
+      <c r="M140" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="C141">
+        <v>894</v>
+      </c>
+      <c r="D141">
+        <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F141" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G141" s="2">
         <v>43724</v>
       </c>
       <c r="H141" t="s">
-        <v>215</v>
+        <v>170</v>
       </c>
       <c r="I141" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="J141" t="s">
-        <v>386</v>
-      </c>
-      <c r="K141" t="s">
-        <v>440</v>
+        <v>341</v>
+      </c>
+      <c r="K141" t="b">
+        <v>0</v>
       </c>
       <c r="L141" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>395</v>
+      </c>
+      <c r="M141" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>43</v>
-      </c>
-      <c r="D142" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="C142">
+        <v>720</v>
+      </c>
+      <c r="D142">
+        <v>23</v>
       </c>
       <c r="E142" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G142" s="2">
         <v>44032</v>
       </c>
       <c r="H142" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="I142" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="J142" t="s">
-        <v>386</v>
-      </c>
-      <c r="K142" t="s">
-        <v>441</v>
+        <v>341</v>
+      </c>
+      <c r="K142" t="b">
+        <v>0</v>
       </c>
       <c r="L142" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>396</v>
+      </c>
+      <c r="M142" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>44</v>
-      </c>
-      <c r="D143" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="C143">
+        <v>893</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G143" s="2">
         <v>43686</v>
       </c>
       <c r="H143" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="I143" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="J143" t="s">
-        <v>388</v>
-      </c>
-      <c r="K143" t="s">
-        <v>442</v>
+        <v>343</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
       </c>
       <c r="L143" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>397</v>
+      </c>
+      <c r="M143" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
-      </c>
-      <c r="C144" t="s">
-        <v>45</v>
-      </c>
-      <c r="D144" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C144">
+        <v>324714</v>
+      </c>
+      <c r="D144">
+        <v>20286</v>
       </c>
       <c r="E144" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G144" s="2">
         <v>44335</v>
       </c>
       <c r="H144" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="I144" t="s">
-        <v>369</v>
+        <v>324</v>
       </c>
       <c r="J144" t="s">
-        <v>386</v>
-      </c>
-      <c r="K144" t="s">
-        <v>443</v>
+        <v>341</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>398</v>
+      </c>
+      <c r="M144" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
-      </c>
-      <c r="C145" t="s">
-        <v>45</v>
-      </c>
-      <c r="D145" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>324714</v>
+      </c>
+      <c r="D145">
+        <v>20286</v>
       </c>
       <c r="E145" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F145" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G145" s="2">
         <v>44335</v>
       </c>
       <c r="H145" t="s">
-        <v>218</v>
+        <v>173</v>
       </c>
       <c r="I145" t="s">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="J145" t="s">
-        <v>386</v>
-      </c>
-      <c r="K145" t="s">
-        <v>444</v>
+        <v>341</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
       </c>
       <c r="L145" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>399</v>
+      </c>
+      <c r="M145" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
-      </c>
-      <c r="C146" t="s">
-        <v>45</v>
-      </c>
-      <c r="D146" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C146">
+        <v>324714</v>
+      </c>
+      <c r="D146">
+        <v>20286</v>
       </c>
       <c r="E146" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F146" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G146" s="2">
         <v>44335</v>
       </c>
       <c r="H146" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="I146" t="s">
-        <v>371</v>
+        <v>326</v>
       </c>
       <c r="J146" t="s">
-        <v>386</v>
-      </c>
-      <c r="K146" t="s">
-        <v>444</v>
+        <v>341</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
       </c>
       <c r="L146" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>399</v>
+      </c>
+      <c r="M146" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
-      </c>
-      <c r="C147" t="s">
-        <v>45</v>
-      </c>
-      <c r="D147" t="s">
-        <v>68</v>
+        <v>22</v>
+      </c>
+      <c r="C147">
+        <v>324714</v>
+      </c>
+      <c r="D147">
+        <v>20286</v>
       </c>
       <c r="E147" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F147" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G147" s="2">
         <v>44335</v>
       </c>
       <c r="H147" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="I147" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="J147" t="s">
-        <v>386</v>
-      </c>
-      <c r="K147" t="s">
-        <v>444</v>
+        <v>341</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
       </c>
       <c r="L147" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>399</v>
+      </c>
+      <c r="M147" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="G148" s="2">
         <v>44540</v>
       </c>
       <c r="H148" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="I148" t="s">
-        <v>373</v>
+        <v>328</v>
       </c>
       <c r="J148" t="s">
-        <v>388</v>
-      </c>
-      <c r="K148" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="L148" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M148" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G149" s="2">
         <v>44539</v>
       </c>
       <c r="H149" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="I149" t="s">
-        <v>374</v>
+        <v>329</v>
       </c>
       <c r="J149" t="s">
-        <v>388</v>
-      </c>
-      <c r="K149" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="L149" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M149" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G150" s="2">
         <v>44539</v>
       </c>
       <c r="H150" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="I150" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="J150" t="s">
-        <v>388</v>
-      </c>
-      <c r="K150" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="L150" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>24</v>
+      </c>
+      <c r="M150" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
-      </c>
-      <c r="C151" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F151" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G151" s="2">
         <v>43996</v>
       </c>
       <c r="H151" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="I151" t="s">
-        <v>376</v>
+        <v>331</v>
       </c>
       <c r="J151" t="s">
-        <v>389</v>
-      </c>
-      <c r="K151" t="s">
-        <v>445</v>
+        <v>344</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
       </c>
       <c r="L151" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>400</v>
+      </c>
+      <c r="M151" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D152" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C152">
+        <v>938</v>
+      </c>
+      <c r="D152">
+        <v>58</v>
       </c>
       <c r="E152" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F152" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G152" s="2">
         <v>44128</v>
       </c>
       <c r="H152" t="s">
-        <v>224</v>
+        <v>179</v>
       </c>
       <c r="I152" t="s">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="J152" t="s">
-        <v>389</v>
-      </c>
-      <c r="K152" t="s">
-        <v>446</v>
+        <v>344</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
       </c>
       <c r="L152" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>401</v>
+      </c>
+      <c r="M152" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>47</v>
-      </c>
-      <c r="D153" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>938</v>
+      </c>
+      <c r="D153">
+        <v>58</v>
       </c>
       <c r="E153" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F153" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G153" s="2">
         <v>44130</v>
       </c>
       <c r="H153" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="I153" t="s">
-        <v>378</v>
+        <v>333</v>
       </c>
       <c r="J153" t="s">
-        <v>389</v>
-      </c>
-      <c r="K153" t="s">
-        <v>447</v>
+        <v>344</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
       </c>
       <c r="L153" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>402</v>
+      </c>
+      <c r="M153" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>47</v>
-      </c>
-      <c r="D154" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>938</v>
+      </c>
+      <c r="D154">
+        <v>59</v>
       </c>
       <c r="E154" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G154" s="2">
         <v>44136</v>
       </c>
       <c r="H154" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="I154" t="s">
-        <v>379</v>
+        <v>334</v>
       </c>
       <c r="J154" t="s">
-        <v>389</v>
-      </c>
-      <c r="K154" t="s">
-        <v>448</v>
+        <v>344</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
       </c>
       <c r="L154" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>403</v>
+      </c>
+      <c r="M154" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>47</v>
-      </c>
-      <c r="D155" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C155">
+        <v>938</v>
+      </c>
+      <c r="D155">
+        <v>59</v>
       </c>
       <c r="E155" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F155" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G155" s="2">
         <v>44136</v>
       </c>
       <c r="H155" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="I155" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="J155" t="s">
-        <v>389</v>
-      </c>
-      <c r="K155" t="s">
-        <v>449</v>
+        <v>344</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
       </c>
       <c r="L155" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>404</v>
+      </c>
+      <c r="M155" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>47</v>
-      </c>
-      <c r="D156" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>938</v>
+      </c>
+      <c r="D156">
+        <v>59</v>
       </c>
       <c r="E156" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F156" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G156" s="2">
         <v>44136</v>
       </c>
       <c r="H156" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="I156" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="J156" t="s">
-        <v>389</v>
-      </c>
-      <c r="K156" t="s">
-        <v>449</v>
+        <v>344</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
       </c>
       <c r="L156" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>404</v>
+      </c>
+      <c r="M156" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>47</v>
-      </c>
-      <c r="D157" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>938</v>
+      </c>
+      <c r="D157">
+        <v>58</v>
       </c>
       <c r="E157" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G157" s="2">
         <v>44129</v>
       </c>
       <c r="H157" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="I157" t="s">
-        <v>382</v>
+        <v>337</v>
       </c>
       <c r="J157" t="s">
-        <v>389</v>
-      </c>
-      <c r="K157" t="s">
-        <v>450</v>
+        <v>344</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
       </c>
       <c r="L157" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12">
+        <v>405</v>
+      </c>
+      <c r="M157" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>47</v>
-      </c>
-      <c r="D158" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>938</v>
+      </c>
+      <c r="D158">
+        <v>59</v>
       </c>
       <c r="E158" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G158" s="2">
         <v>44136</v>
       </c>
       <c r="H158" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="I158" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="J158" t="s">
-        <v>389</v>
-      </c>
-      <c r="K158" t="s">
-        <v>451</v>
+        <v>344</v>
+      </c>
+      <c r="K158" t="b">
+        <v>0</v>
       </c>
       <c r="L158" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>406</v>
+      </c>
+      <c r="M158" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>47</v>
-      </c>
-      <c r="D159" t="s">
-        <v>70</v>
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>938</v>
+      </c>
+      <c r="D159">
+        <v>59</v>
       </c>
       <c r="E159" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G159" s="2">
         <v>44137</v>
       </c>
       <c r="H159" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="I159" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="J159" t="s">
-        <v>389</v>
-      </c>
-      <c r="K159" t="s">
-        <v>452</v>
+        <v>344</v>
+      </c>
+      <c r="K159" t="b">
+        <v>0</v>
       </c>
       <c r="L159" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>407</v>
+      </c>
+      <c r="M159" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>47</v>
-      </c>
-      <c r="D160" t="s">
-        <v>69</v>
+        <v>13</v>
+      </c>
+      <c r="C160">
+        <v>938</v>
+      </c>
+      <c r="D160">
+        <v>58</v>
       </c>
       <c r="E160" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="G160" s="2">
         <v>44128</v>
       </c>
       <c r="H160" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="I160" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="J160" t="s">
-        <v>389</v>
-      </c>
-      <c r="K160" t="s">
-        <v>453</v>
+        <v>344</v>
+      </c>
+      <c r="K160" t="b">
+        <v>0</v>
       </c>
       <c r="L160" t="s">
-        <v>533</v>
+        <v>408</v>
+      </c>
+      <c r="M160" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K160"/>
+  <autoFilter ref="A1:L160"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>